--- a/data/Excel/Karmine_Corp_and_Team_Heretics_stats.xlsx
+++ b/data/Excel/Karmine_Corp_and_Team_Heretics_stats.xlsx
@@ -472,32 +472,32 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
+          <t>Bind</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
           <t>Breeze</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>Icebox</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>Lotus</t>
+        </is>
+      </c>
+      <c r="M3" s="1" t="inlineStr">
         <is>
           <t>Split</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="O3" s="1" t="inlineStr">
         <is>
           <t>Sunset</t>
-        </is>
-      </c>
-      <c r="M3" s="1" t="inlineStr">
-        <is>
-          <t>Bind</t>
-        </is>
-      </c>
-      <c r="O3" s="1" t="inlineStr">
-        <is>
-          <t>Lotus</t>
         </is>
       </c>
     </row>
@@ -1005,10 +1005,10 @@
         </is>
       </c>
       <c r="C10" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
@@ -1083,10 +1083,10 @@
         </is>
       </c>
       <c r="C11" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
@@ -1161,10 +1161,10 @@
         </is>
       </c>
       <c r="C12" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
@@ -1177,28 +1177,28 @@
         </is>
       </c>
       <c r="G12" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="I12" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="J12" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="K12" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M12" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="N12" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="O12" s="3" t="inlineStr">
         <is>
@@ -1223,10 +1223,10 @@
         </is>
       </c>
       <c r="C13" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
@@ -1301,10 +1301,10 @@
         </is>
       </c>
       <c r="C14" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
